--- a/archive/investors.xlsx
+++ b/archive/investors.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\cwb-slt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\Desktop\cwb-slt\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{209541B8-D7D8-4E70-9606-B8AF31D8DF04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA1502B-1DD8-43FF-A10C-DACF98D192E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{B43D08C9-BC77-4BFE-A3E5-A2E3BB66DA3B}"/>
+    <workbookView xWindow="15" yWindow="1605" windowWidth="22485" windowHeight="13395" xr2:uid="{B43D08C9-BC77-4BFE-A3E5-A2E3BB66DA3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -47,9 +47,6 @@
     <t>Regions</t>
   </si>
   <si>
-    <t>Stage</t>
-  </si>
-  <si>
     <t>Industry</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Women Issues</t>
+  </si>
+  <si>
+    <t>StartupStage</t>
   </si>
 </sst>
 </file>
@@ -579,7 +579,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -598,197 +598,197 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="C7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="D7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="C11" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
